--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H2">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I2">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J2">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.603012</v>
+        <v>6.822863</v>
       </c>
       <c r="N2">
-        <v>5.206024</v>
+        <v>13.645726</v>
       </c>
       <c r="O2">
-        <v>0.05633922884439786</v>
+        <v>0.112858563366993</v>
       </c>
       <c r="P2">
-        <v>0.04298484318151239</v>
+        <v>0.0887135100828511</v>
       </c>
       <c r="Q2">
-        <v>120.200928926078</v>
+        <v>360.0413240347215</v>
       </c>
       <c r="R2">
-        <v>480.8037157043121</v>
+        <v>1440.165296138886</v>
       </c>
       <c r="S2">
-        <v>0.008380409124966773</v>
+        <v>0.01847574684673209</v>
       </c>
       <c r="T2">
-        <v>0.004734993544932346</v>
+        <v>0.01088613858310369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H3">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I3">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J3">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>52.97671099999999</v>
       </c>
       <c r="O3">
-        <v>0.3822068491491816</v>
+        <v>0.2921000316811469</v>
       </c>
       <c r="P3">
-        <v>0.437415504539991</v>
+        <v>0.3444118682622521</v>
       </c>
       <c r="Q3">
-        <v>815.446346213332</v>
+        <v>931.8573533058283</v>
       </c>
       <c r="R3">
-        <v>4892.678077279993</v>
+        <v>5591.14411983497</v>
       </c>
       <c r="S3">
-        <v>0.05685292170187556</v>
+        <v>0.04781884580361094</v>
       </c>
       <c r="T3">
-        <v>0.04818348601864808</v>
+        <v>0.04226318318446624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H4">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I4">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J4">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.374669333333333</v>
+        <v>7.314805</v>
       </c>
       <c r="N4">
-        <v>16.124008</v>
+        <v>21.944415</v>
       </c>
       <c r="O4">
-        <v>0.1163285937727655</v>
+        <v>0.1209958903776461</v>
       </c>
       <c r="P4">
-        <v>0.133131917051756</v>
+        <v>0.1426648960535166</v>
       </c>
       <c r="Q4">
-        <v>248.1894999090173</v>
+        <v>386.0010199905525</v>
       </c>
       <c r="R4">
-        <v>1489.136999454104</v>
+        <v>2316.006119943315</v>
       </c>
       <c r="S4">
-        <v>0.01730377267747738</v>
+        <v>0.0198078849616664</v>
       </c>
       <c r="T4">
-        <v>0.01466514057530997</v>
+        <v>0.01750657625802683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H5">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I5">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J5">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.891407</v>
+        <v>20.7241965</v>
       </c>
       <c r="N5">
-        <v>29.782814</v>
+        <v>41.448393</v>
       </c>
       <c r="O5">
-        <v>0.3223075371101125</v>
+        <v>0.3428037531935296</v>
       </c>
       <c r="P5">
-        <v>0.245909275349893</v>
+        <v>0.2694640380675586</v>
       </c>
       <c r="Q5">
-        <v>687.6499049625205</v>
+        <v>1093.612336553693</v>
       </c>
       <c r="R5">
-        <v>2750.599619850082</v>
+        <v>4374.449346214772</v>
       </c>
       <c r="S5">
-        <v>0.04794295343486472</v>
+        <v>0.05611940444003217</v>
       </c>
       <c r="T5">
-        <v>0.02708812560985518</v>
+        <v>0.03306624728101275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H6">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I6">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J6">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.440071</v>
+        <v>2.138490666666666</v>
       </c>
       <c r="N6">
-        <v>7.320213</v>
+        <v>6.415471999999999</v>
       </c>
       <c r="O6">
-        <v>0.05281255655585864</v>
+        <v>0.03537327136917788</v>
       </c>
       <c r="P6">
-        <v>0.06044117504265603</v>
+        <v>0.0417082271737135</v>
       </c>
       <c r="Q6">
-        <v>112.6766994718365</v>
+        <v>112.847790005832</v>
       </c>
       <c r="R6">
-        <v>676.0601968310191</v>
+        <v>677.0867400349919</v>
       </c>
       <c r="S6">
-        <v>0.007855819824867038</v>
+        <v>0.00579085527460139</v>
       </c>
       <c r="T6">
-        <v>0.006657895027477753</v>
+        <v>0.005118065339141458</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.1776315</v>
+        <v>52.7698305</v>
       </c>
       <c r="H7">
-        <v>92.35526300000001</v>
+        <v>105.539661</v>
       </c>
       <c r="I7">
-        <v>0.1487490918292909</v>
+        <v>0.1637070887270887</v>
       </c>
       <c r="J7">
-        <v>0.1101549568283373</v>
+        <v>0.1227111696170847</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.234415333333333</v>
+        <v>5.795728333333333</v>
       </c>
       <c r="N7">
-        <v>9.703246</v>
+        <v>17.387185</v>
       </c>
       <c r="O7">
-        <v>0.0700052345676839</v>
+        <v>0.09586849001150644</v>
       </c>
       <c r="P7">
-        <v>0.08011728483419157</v>
+        <v>0.1130374603601082</v>
       </c>
       <c r="Q7">
-        <v>149.3576393806163</v>
+        <v>305.8396017740475</v>
       </c>
       <c r="R7">
-        <v>896.145836283698</v>
+        <v>1835.037610644285</v>
       </c>
       <c r="S7">
-        <v>0.01041321506523946</v>
+        <v>0.0156943514004457</v>
       </c>
       <c r="T7">
-        <v>0.008825316052113976</v>
+        <v>0.01387095897133372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H8">
         <v>226.309475</v>
       </c>
       <c r="I8">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J8">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.603012</v>
+        <v>6.822863</v>
       </c>
       <c r="N8">
-        <v>5.206024</v>
+        <v>13.645726</v>
       </c>
       <c r="O8">
-        <v>0.05633922884439786</v>
+        <v>0.112858563366993</v>
       </c>
       <c r="P8">
-        <v>0.04298484318151239</v>
+        <v>0.0887135100828511</v>
       </c>
       <c r="Q8">
-        <v>196.3620930462333</v>
+        <v>514.6928478423083</v>
       </c>
       <c r="R8">
-        <v>1178.1725582774</v>
+        <v>3088.15708705385</v>
       </c>
       <c r="S8">
-        <v>0.01369036571567801</v>
+        <v>0.02641178699709767</v>
       </c>
       <c r="T8">
-        <v>0.0116027378242865</v>
+        <v>0.02334322741020971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H9">
         <v>226.309475</v>
       </c>
       <c r="I9">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J9">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>52.97671099999999</v>
       </c>
       <c r="O9">
-        <v>0.3822068491491816</v>
+        <v>0.2921000316811469</v>
       </c>
       <c r="P9">
-        <v>0.437415504539991</v>
+        <v>0.3444118682622521</v>
       </c>
       <c r="Q9">
         <v>1332.125739292969</v>
@@ -1013,10 +1013,10 @@
         <v>11989.13165363672</v>
       </c>
       <c r="S9">
-        <v>0.09287581053586924</v>
+        <v>0.06835886961914185</v>
       </c>
       <c r="T9">
-        <v>0.1180699298593312</v>
+        <v>0.09062525601920764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H10">
         <v>226.309475</v>
       </c>
       <c r="I10">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J10">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.374669333333333</v>
+        <v>7.314805</v>
       </c>
       <c r="N10">
-        <v>16.124008</v>
+        <v>21.944415</v>
       </c>
       <c r="O10">
-        <v>0.1163285937727655</v>
+        <v>0.1209958903776461</v>
       </c>
       <c r="P10">
-        <v>0.133131917051756</v>
+        <v>0.1426648960535166</v>
       </c>
       <c r="Q10">
-        <v>405.4461983750888</v>
+        <v>551.8032264257916</v>
       </c>
       <c r="R10">
-        <v>3649.015785375799</v>
+        <v>4966.229037832125</v>
       </c>
       <c r="S10">
-        <v>0.02826771016582815</v>
+        <v>0.02831612939982894</v>
       </c>
       <c r="T10">
-        <v>0.03593580004638822</v>
+        <v>0.03753948084030246</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H11">
         <v>226.309475</v>
       </c>
       <c r="I11">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J11">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.891407</v>
+        <v>20.7241965</v>
       </c>
       <c r="N11">
-        <v>29.782814</v>
+        <v>41.448393</v>
       </c>
       <c r="O11">
-        <v>0.3223075371101125</v>
+        <v>0.3428037531935296</v>
       </c>
       <c r="P11">
-        <v>0.245909275349893</v>
+        <v>0.2694640380675586</v>
       </c>
       <c r="Q11">
-        <v>1123.355500060441</v>
+        <v>1563.360676570612</v>
       </c>
       <c r="R11">
-        <v>6740.133000362648</v>
+        <v>9380.164059423674</v>
       </c>
       <c r="S11">
-        <v>0.07832034883089574</v>
+        <v>0.08022483576821007</v>
       </c>
       <c r="T11">
-        <v>0.06637737023715019</v>
+        <v>0.07090419839785324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H12">
         <v>226.309475</v>
       </c>
       <c r="I12">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J12">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.440071</v>
+        <v>2.138490666666666</v>
       </c>
       <c r="N12">
-        <v>7.320213</v>
+        <v>6.415471999999999</v>
       </c>
       <c r="O12">
-        <v>0.05281255655585864</v>
+        <v>0.03537327136917788</v>
       </c>
       <c r="P12">
-        <v>0.06044117504265603</v>
+        <v>0.0417082271737135</v>
       </c>
       <c r="Q12">
-        <v>184.070395657575</v>
+        <v>161.3202333552444</v>
       </c>
       <c r="R12">
-        <v>1656.633560918175</v>
+        <v>1451.8821001972</v>
       </c>
       <c r="S12">
-        <v>0.0128333885369027</v>
+        <v>0.008278249172419466</v>
       </c>
       <c r="T12">
-        <v>0.01631466014312146</v>
+        <v>0.01097470532823486</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.43649166666665</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H13">
         <v>226.309475</v>
       </c>
       <c r="I13">
-        <v>0.2429988126654902</v>
+        <v>0.2340255467474979</v>
       </c>
       <c r="J13">
-        <v>0.2699262569201787</v>
+        <v>0.2631304678217451</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.234415333333333</v>
+        <v>5.795728333333333</v>
       </c>
       <c r="N13">
-        <v>9.703246</v>
+        <v>17.387185</v>
       </c>
       <c r="O13">
-        <v>0.0700052345676839</v>
+        <v>0.09586849001150644</v>
       </c>
       <c r="P13">
-        <v>0.08011728483419157</v>
+        <v>0.1130374603601082</v>
       </c>
       <c r="Q13">
-        <v>243.9929453395388</v>
+        <v>437.2094121197639</v>
       </c>
       <c r="R13">
-        <v>2195.93650805585</v>
+        <v>3934.884709077875</v>
       </c>
       <c r="S13">
-        <v>0.01701118888031632</v>
+        <v>0.02243567579079983</v>
       </c>
       <c r="T13">
-        <v>0.02162575880990113</v>
+        <v>0.02974359982593723</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H14">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I14">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J14">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.603012</v>
+        <v>6.822863</v>
       </c>
       <c r="N14">
-        <v>5.206024</v>
+        <v>13.645726</v>
       </c>
       <c r="O14">
-        <v>0.05633922884439786</v>
+        <v>0.112858563366993</v>
       </c>
       <c r="P14">
-        <v>0.04298484318151239</v>
+        <v>0.0887135100828511</v>
       </c>
       <c r="Q14">
-        <v>147.4815432660787</v>
+        <v>340.6731525336697</v>
       </c>
       <c r="R14">
-        <v>884.8892595964719</v>
+        <v>2044.038915202018</v>
       </c>
       <c r="S14">
-        <v>0.01028241363851126</v>
+        <v>0.01748185695229593</v>
       </c>
       <c r="T14">
-        <v>0.008714460382302908</v>
+        <v>0.01545078954464697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H15">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I15">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J15">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>52.97671099999999</v>
       </c>
       <c r="O15">
-        <v>0.3822068491491816</v>
+        <v>0.2921000316811469</v>
       </c>
       <c r="P15">
-        <v>0.437415504539991</v>
+        <v>0.3444118682622521</v>
       </c>
       <c r="Q15">
-        <v>1000.518770235026</v>
+        <v>881.7287379816524</v>
       </c>
       <c r="R15">
-        <v>9004.668932115232</v>
+        <v>7935.558641834872</v>
       </c>
       <c r="S15">
-        <v>0.06975617165932767</v>
+        <v>0.04524646439992137</v>
       </c>
       <c r="T15">
-        <v>0.08867870167218025</v>
+        <v>0.05998449715526929</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H16">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I16">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J16">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.374669333333333</v>
+        <v>7.314805</v>
       </c>
       <c r="N16">
-        <v>16.124008</v>
+        <v>21.944415</v>
       </c>
       <c r="O16">
-        <v>0.1163285937727655</v>
+        <v>0.1209958903776461</v>
       </c>
       <c r="P16">
-        <v>0.133131917051756</v>
+        <v>0.1426648960535166</v>
       </c>
       <c r="Q16">
-        <v>304.5181996183138</v>
+        <v>365.2363647810383</v>
       </c>
       <c r="R16">
-        <v>2740.663796564824</v>
+        <v>3287.127283029345</v>
       </c>
       <c r="S16">
-        <v>0.0212310097900259</v>
+        <v>0.01874233362797099</v>
       </c>
       <c r="T16">
-        <v>0.02699027682544973</v>
+        <v>0.02484723332751912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H17">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I17">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J17">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.891407</v>
+        <v>20.7241965</v>
       </c>
       <c r="N17">
-        <v>29.782814</v>
+        <v>41.448393</v>
       </c>
       <c r="O17">
-        <v>0.3223075371101125</v>
+        <v>0.3428037531935296</v>
       </c>
       <c r="P17">
-        <v>0.245909275349893</v>
+        <v>0.2694640380675586</v>
       </c>
       <c r="Q17">
-        <v>843.7178490776402</v>
+        <v>1034.782224907966</v>
       </c>
       <c r="R17">
-        <v>5062.307094465841</v>
+        <v>6208.693349447798</v>
       </c>
       <c r="S17">
-        <v>0.05882401096630444</v>
+        <v>0.05310050028327873</v>
       </c>
       <c r="T17">
-        <v>0.04985400618139608</v>
+        <v>0.04693120741298915</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H18">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I18">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J18">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.440071</v>
+        <v>2.138490666666666</v>
       </c>
       <c r="N18">
-        <v>7.320213</v>
+        <v>6.415471999999999</v>
       </c>
       <c r="O18">
-        <v>0.05281255655585864</v>
+        <v>0.03537327136917788</v>
       </c>
       <c r="P18">
-        <v>0.06044117504265603</v>
+        <v>0.0417082271737135</v>
       </c>
       <c r="Q18">
-        <v>138.249626493771</v>
+        <v>106.7772219780995</v>
       </c>
       <c r="R18">
-        <v>1244.246638443939</v>
+        <v>960.9949978028959</v>
       </c>
       <c r="S18">
-        <v>0.009638764373478038</v>
+        <v>0.005479340260604181</v>
       </c>
       <c r="T18">
-        <v>0.01225344066383841</v>
+        <v>0.007264113884565423</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.65803433333333</v>
+        <v>49.93111433333333</v>
       </c>
       <c r="H19">
-        <v>169.974103</v>
+        <v>149.793343</v>
       </c>
       <c r="I19">
-        <v>0.182508952454959</v>
+        <v>0.1549005802550268</v>
       </c>
       <c r="J19">
-        <v>0.2027333296414342</v>
+        <v>0.1741650119606045</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.234415333333333</v>
+        <v>5.795728333333333</v>
       </c>
       <c r="N19">
-        <v>9.703246</v>
+        <v>17.387185</v>
       </c>
       <c r="O19">
-        <v>0.0700052345676839</v>
+        <v>0.09586849001150644</v>
       </c>
       <c r="P19">
-        <v>0.08011728483419157</v>
+        <v>0.1130374603601082</v>
       </c>
       <c r="Q19">
-        <v>183.2556150042597</v>
+        <v>289.3871740566061</v>
       </c>
       <c r="R19">
-        <v>1649.300535038338</v>
+        <v>2604.484566509455</v>
       </c>
       <c r="S19">
-        <v>0.01277658202731167</v>
+        <v>0.01485008473095559</v>
       </c>
       <c r="T19">
-        <v>0.01624244391626684</v>
+        <v>0.0196871706356146</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H20">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I20">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J20">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.603012</v>
+        <v>6.822863</v>
       </c>
       <c r="N20">
-        <v>5.206024</v>
+        <v>13.645726</v>
       </c>
       <c r="O20">
-        <v>0.05633922884439786</v>
+        <v>0.112858563366993</v>
       </c>
       <c r="P20">
-        <v>0.04298484318151239</v>
+        <v>0.0887135100828511</v>
       </c>
       <c r="Q20">
-        <v>121.637191555812</v>
+        <v>369.7545564874115</v>
       </c>
       <c r="R20">
-        <v>486.548766223248</v>
+        <v>1479.018225949646</v>
       </c>
       <c r="S20">
-        <v>0.008480545359816287</v>
+        <v>0.01897418747529187</v>
       </c>
       <c r="T20">
-        <v>0.004791571263102897</v>
+        <v>0.01117982596705434</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H21">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I21">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J21">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>52.97671099999999</v>
       </c>
       <c r="O21">
-        <v>0.3822068491491816</v>
+        <v>0.2921000316811469</v>
       </c>
       <c r="P21">
-        <v>0.437415504539991</v>
+        <v>0.3444118682622521</v>
       </c>
       <c r="Q21">
-        <v>825.1899906600368</v>
+        <v>956.997098332805</v>
       </c>
       <c r="R21">
-        <v>4951.139943960221</v>
+        <v>5741.98258999683</v>
       </c>
       <c r="S21">
-        <v>0.05753224862190138</v>
+        <v>0.04910890762125113</v>
       </c>
       <c r="T21">
-        <v>0.04875922316941048</v>
+        <v>0.04340336375557689</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H22">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I22">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J22">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.374669333333333</v>
+        <v>7.314805</v>
       </c>
       <c r="N22">
-        <v>16.124008</v>
+        <v>21.944415</v>
       </c>
       <c r="O22">
-        <v>0.1163285937727655</v>
+        <v>0.1209958903776461</v>
       </c>
       <c r="P22">
-        <v>0.133131917051756</v>
+        <v>0.1426648960535166</v>
       </c>
       <c r="Q22">
-        <v>251.155078519736</v>
+        <v>396.4145958327025</v>
       </c>
       <c r="R22">
-        <v>1506.930471118416</v>
+        <v>2378.487574996215</v>
       </c>
       <c r="S22">
-        <v>0.01751053282710448</v>
+        <v>0.020342264151457</v>
       </c>
       <c r="T22">
-        <v>0.01484037211100855</v>
+        <v>0.01797887050119698</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H23">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I23">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J23">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.891407</v>
+        <v>20.7241965</v>
       </c>
       <c r="N23">
-        <v>29.782814</v>
+        <v>41.448393</v>
       </c>
       <c r="O23">
-        <v>0.3223075371101125</v>
+        <v>0.3428037531935296</v>
       </c>
       <c r="P23">
-        <v>0.245909275349893</v>
+        <v>0.2694640380675586</v>
       </c>
       <c r="Q23">
-        <v>695.8665291572069</v>
+        <v>1123.115924416988</v>
       </c>
       <c r="R23">
-        <v>2783.466116628827</v>
+        <v>4492.463697667952</v>
       </c>
       <c r="S23">
-        <v>0.04851581649834336</v>
+        <v>0.05763339959571043</v>
       </c>
       <c r="T23">
-        <v>0.02741179750549337</v>
+        <v>0.03395831195453238</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H24">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I24">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J24">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.440071</v>
+        <v>2.138490666666666</v>
       </c>
       <c r="N24">
-        <v>7.320213</v>
+        <v>6.415471999999999</v>
       </c>
       <c r="O24">
-        <v>0.05281255655585864</v>
+        <v>0.03537327136917788</v>
       </c>
       <c r="P24">
-        <v>0.06044117504265603</v>
+        <v>0.0417082271737135</v>
       </c>
       <c r="Q24">
-        <v>114.023056227471</v>
+        <v>115.8922094736186</v>
       </c>
       <c r="R24">
-        <v>684.1383373648259</v>
+        <v>695.353256841712</v>
       </c>
       <c r="S24">
-        <v>0.007949687821904887</v>
+        <v>0.005947081573160011</v>
       </c>
       <c r="T24">
-        <v>0.006737449203190811</v>
+        <v>0.005256141040536065</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.729401</v>
+        <v>54.1934605</v>
       </c>
       <c r="H25">
-        <v>93.45880199999999</v>
+        <v>108.386921</v>
       </c>
       <c r="I25">
-        <v>0.1505264721183623</v>
+        <v>0.1681235956689586</v>
       </c>
       <c r="J25">
-        <v>0.1114711816644182</v>
+        <v>0.1260216843704336</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.234415333333333</v>
+        <v>5.795728333333333</v>
       </c>
       <c r="N25">
-        <v>9.703246</v>
+        <v>17.387185</v>
       </c>
       <c r="O25">
-        <v>0.0700052345676839</v>
+        <v>0.09586849001150644</v>
       </c>
       <c r="P25">
-        <v>0.08011728483419157</v>
+        <v>0.1130374603601082</v>
       </c>
       <c r="Q25">
-        <v>151.142291111882</v>
+        <v>314.0905745012308</v>
       </c>
       <c r="R25">
-        <v>906.8537466712919</v>
+        <v>1884.543447007385</v>
       </c>
       <c r="S25">
-        <v>0.01053764098929188</v>
+        <v>0.0161177552520881</v>
       </c>
       <c r="T25">
-        <v>0.008930768412212107</v>
+        <v>0.01424517115153695</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H26">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I26">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J26">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.603012</v>
+        <v>6.822863</v>
       </c>
       <c r="N26">
-        <v>5.206024</v>
+        <v>13.645726</v>
       </c>
       <c r="O26">
-        <v>0.05633922884439786</v>
+        <v>0.112858563366993</v>
       </c>
       <c r="P26">
-        <v>0.04298484318151239</v>
+        <v>0.0887135100828511</v>
       </c>
       <c r="Q26">
-        <v>88.48430318386934</v>
+        <v>243.715436442378</v>
       </c>
       <c r="R26">
-        <v>530.905819103216</v>
+        <v>1462.292618654268</v>
       </c>
       <c r="S26">
-        <v>0.006169125883165672</v>
+        <v>0.01250641080832143</v>
       </c>
       <c r="T26">
-        <v>0.005228403076582552</v>
+        <v>0.01105339792480654</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H27">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I27">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J27">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>52.97671099999999</v>
       </c>
       <c r="O27">
-        <v>0.3822068491491816</v>
+        <v>0.2921000316811469</v>
       </c>
       <c r="P27">
-        <v>0.437415504539991</v>
+        <v>0.3444118682622521</v>
       </c>
       <c r="Q27">
-        <v>600.2799011053637</v>
+        <v>630.7832084882218</v>
       </c>
       <c r="R27">
-        <v>5402.519109948274</v>
+        <v>5677.048876393997</v>
       </c>
       <c r="S27">
-        <v>0.04185151650409698</v>
+        <v>0.03236903682221187</v>
       </c>
       <c r="T27">
-        <v>0.05320444138936445</v>
+        <v>0.04291253301073727</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H28">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I28">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J28">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.374669333333333</v>
+        <v>7.314805</v>
       </c>
       <c r="N28">
-        <v>16.124008</v>
+        <v>21.944415</v>
       </c>
       <c r="O28">
-        <v>0.1163285937727655</v>
+        <v>0.1209958903776461</v>
       </c>
       <c r="P28">
-        <v>0.133131917051756</v>
+        <v>0.1426648960535166</v>
       </c>
       <c r="Q28">
-        <v>182.7013747165636</v>
+        <v>261.2878044108299</v>
       </c>
       <c r="R28">
-        <v>1644.312372449072</v>
+        <v>2351.59023969747</v>
       </c>
       <c r="S28">
-        <v>0.01273794039279245</v>
+        <v>0.01340814791573034</v>
       </c>
       <c r="T28">
-        <v>0.01619332009111784</v>
+        <v>0.01777555486766285</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H29">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I29">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J29">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>14.891407</v>
+        <v>20.7241965</v>
       </c>
       <c r="N29">
-        <v>29.782814</v>
+        <v>41.448393</v>
       </c>
       <c r="O29">
-        <v>0.3223075371101125</v>
+        <v>0.3428037531935296</v>
       </c>
       <c r="P29">
-        <v>0.245909275349893</v>
+        <v>0.2694640380675586</v>
       </c>
       <c r="Q29">
-        <v>506.2042633005127</v>
+        <v>740.2767130037788</v>
       </c>
       <c r="R29">
-        <v>3037.225579803076</v>
+        <v>4441.660278022673</v>
       </c>
       <c r="S29">
-        <v>0.03529256275439931</v>
+        <v>0.03798776482854444</v>
       </c>
       <c r="T29">
-        <v>0.02991084104623526</v>
+        <v>0.03357429140617114</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H30">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I30">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J30">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.440071</v>
+        <v>2.138490666666666</v>
       </c>
       <c r="N30">
-        <v>7.320213</v>
+        <v>6.415471999999999</v>
       </c>
       <c r="O30">
-        <v>0.05281255655585864</v>
+        <v>0.03537327136917788</v>
       </c>
       <c r="P30">
-        <v>0.06044117504265603</v>
+        <v>0.0417082271737135</v>
       </c>
       <c r="Q30">
-        <v>82.94544249283801</v>
+        <v>76.38775484054398</v>
       </c>
       <c r="R30">
-        <v>746.508982435542</v>
+        <v>687.4897935648959</v>
       </c>
       <c r="S30">
-        <v>0.005782956499187074</v>
+        <v>0.003919885653148027</v>
       </c>
       <c r="T30">
-        <v>0.007351680316963501</v>
+        <v>0.005196701508696165</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>33.99304466666667</v>
+        <v>35.720406</v>
       </c>
       <c r="H31">
-        <v>101.979134</v>
+        <v>107.161218</v>
       </c>
       <c r="I31">
-        <v>0.1094996507709407</v>
+        <v>0.1108149034969827</v>
       </c>
       <c r="J31">
-        <v>0.1216336431542751</v>
+        <v>0.1245965571025606</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.234415333333333</v>
+        <v>5.795728333333333</v>
       </c>
       <c r="N31">
-        <v>9.703246</v>
+        <v>17.387185</v>
       </c>
       <c r="O31">
-        <v>0.0700052345676839</v>
+        <v>0.09586849001150644</v>
       </c>
       <c r="P31">
-        <v>0.08011728483419157</v>
+        <v>0.1130374603601082</v>
       </c>
       <c r="Q31">
-        <v>109.9476248965516</v>
+        <v>207.02576913237</v>
       </c>
       <c r="R31">
-        <v>989.5286240689641</v>
+        <v>1863.23192219133</v>
       </c>
       <c r="S31">
-        <v>0.00766554873729917</v>
+        <v>0.01062365746902653</v>
       </c>
       <c r="T31">
-        <v>0.009744957234011472</v>
+        <v>0.01408407838448665</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H32">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I32">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J32">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.603012</v>
+        <v>6.822863</v>
       </c>
       <c r="N32">
-        <v>5.206024</v>
+        <v>13.645726</v>
       </c>
       <c r="O32">
-        <v>0.05633922884439786</v>
+        <v>0.112858563366993</v>
       </c>
       <c r="P32">
-        <v>0.04298484318151239</v>
+        <v>0.0887135100828511</v>
       </c>
       <c r="Q32">
-        <v>133.912345394812</v>
+        <v>370.424660565525</v>
       </c>
       <c r="R32">
-        <v>803.474072368872</v>
+        <v>2222.54796339315</v>
       </c>
       <c r="S32">
-        <v>0.009336369122259843</v>
+        <v>0.01900857428725403</v>
       </c>
       <c r="T32">
-        <v>0.007912677090305178</v>
+        <v>0.01680013065302985</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H33">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I33">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J33">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>52.97671099999999</v>
       </c>
       <c r="O33">
-        <v>0.3822068491491816</v>
+        <v>0.2921000316811469</v>
       </c>
       <c r="P33">
-        <v>0.437415504539991</v>
+        <v>0.3444118682622521</v>
       </c>
       <c r="Q33">
-        <v>908.4649656261203</v>
+        <v>958.7314587269748</v>
       </c>
       <c r="R33">
-        <v>8176.184690635082</v>
+        <v>8628.583128542774</v>
       </c>
       <c r="S33">
-        <v>0.06333818012611074</v>
+        <v>0.04919790741500977</v>
       </c>
       <c r="T33">
-        <v>0.08051972243105646</v>
+        <v>0.0652230351369948</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H34">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I34">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J34">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.374669333333333</v>
+        <v>7.314805</v>
       </c>
       <c r="N34">
-        <v>16.124008</v>
+        <v>21.944415</v>
       </c>
       <c r="O34">
-        <v>0.1163285937727655</v>
+        <v>0.1209958903776461</v>
       </c>
       <c r="P34">
-        <v>0.133131917051756</v>
+        <v>0.1426648960535166</v>
       </c>
       <c r="Q34">
-        <v>276.5006754284027</v>
+        <v>397.133015748375</v>
       </c>
       <c r="R34">
-        <v>2488.506078855624</v>
+        <v>3574.197141735375</v>
       </c>
       <c r="S34">
-        <v>0.01927762791953715</v>
+        <v>0.02037913032099241</v>
       </c>
       <c r="T34">
-        <v>0.02450700740248171</v>
+        <v>0.02701718025880836</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H35">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I35">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J35">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>14.891407</v>
+        <v>20.7241965</v>
       </c>
       <c r="N35">
-        <v>29.782814</v>
+        <v>41.448393</v>
       </c>
       <c r="O35">
-        <v>0.3223075371101125</v>
+        <v>0.3428037531935296</v>
       </c>
       <c r="P35">
-        <v>0.245909275349893</v>
+        <v>0.2694640380675586</v>
       </c>
       <c r="Q35">
-        <v>766.090681717457</v>
+        <v>1125.151341014137</v>
       </c>
       <c r="R35">
-        <v>4596.544090304742</v>
+        <v>6750.908046084824</v>
       </c>
       <c r="S35">
-        <v>0.05341184462530487</v>
+        <v>0.05773784827775377</v>
       </c>
       <c r="T35">
-        <v>0.04526713476976293</v>
+        <v>0.05102978161500002</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H36">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I36">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J36">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.440071</v>
+        <v>2.138490666666666</v>
       </c>
       <c r="N36">
-        <v>7.320213</v>
+        <v>6.415471999999999</v>
       </c>
       <c r="O36">
-        <v>0.05281255655585864</v>
+        <v>0.03537327136917788</v>
       </c>
       <c r="P36">
-        <v>0.06044117504265603</v>
+        <v>0.0417082271737135</v>
       </c>
       <c r="Q36">
-        <v>125.529821045721</v>
+        <v>116.1022402652</v>
       </c>
       <c r="R36">
-        <v>1129.768389411489</v>
+        <v>1044.9201623868</v>
       </c>
       <c r="S36">
-        <v>0.008751939499518904</v>
+        <v>0.005957859435244811</v>
       </c>
       <c r="T36">
-        <v>0.01112604968806408</v>
+        <v>0.007898500072539541</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.445151</v>
+        <v>54.291675</v>
       </c>
       <c r="H37">
-        <v>154.335453</v>
+        <v>162.875025</v>
       </c>
       <c r="I37">
-        <v>0.1657170201609569</v>
+        <v>0.1684282851044455</v>
       </c>
       <c r="J37">
-        <v>0.1840806317913564</v>
+        <v>0.1893751091275716</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.234415333333333</v>
+        <v>5.795728333333333</v>
       </c>
       <c r="N37">
-        <v>9.703246</v>
+        <v>17.387185</v>
       </c>
       <c r="O37">
-        <v>0.0700052345676839</v>
+        <v>0.09586849001150644</v>
       </c>
       <c r="P37">
-        <v>0.08011728483419157</v>
+        <v>0.1130374603601082</v>
       </c>
       <c r="Q37">
-        <v>166.3949852200487</v>
+        <v>314.6597990616249</v>
       </c>
       <c r="R37">
-        <v>1497.554866980438</v>
+        <v>2831.938191554625</v>
       </c>
       <c r="S37">
-        <v>0.01160105886822539</v>
+        <v>0.01614696536819069</v>
       </c>
       <c r="T37">
-        <v>0.01474804040968604</v>
+        <v>0.02140648139119903</v>
       </c>
     </row>
   </sheetData>
